--- a/SCE_mean.xlsx
+++ b/SCE_mean.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -126,7 +126,7 @@
         <v>41426</v>
       </c>
       <c r="B7" s="2">
-        <v>5.3768105768561369</v>
+        <v>5.376810576856137</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -258,7 +258,7 @@
         <v>41791</v>
       </c>
       <c r="B19" s="2">
-        <v>4.9345670533732457</v>
+        <v>4.9345670533732466</v>
       </c>
       <c r="C19" s="2">
         <v>4.75</v>
@@ -423,7 +423,7 @@
         <v>42248</v>
       </c>
       <c r="B34" s="2">
-        <v>5.8450186539383751</v>
+        <v>5.8450186539383742</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -599,7 +599,7 @@
         <v>42736</v>
       </c>
       <c r="B50" s="2">
-        <v>3.5363224359186951</v>
+        <v>3.5363224359187027</v>
       </c>
       <c r="C50" s="2">
         <v>3</v>
@@ -767,7 +767,7 @@
         <v>5.6388926964112827</v>
       </c>
       <c r="C65" s="2">
-        <v>3.9000000953674316</v>
+        <v>3.9000000953674317</v>
       </c>
     </row>
     <row r="66">
@@ -984,7 +984,7 @@
         <v>43800</v>
       </c>
       <c r="B85" s="2">
-        <v>4.5649542144552671</v>
+        <v>4.5649542144552688</v>
       </c>
       <c r="C85" s="2">
         <v>3</v>
@@ -1028,7 +1028,7 @@
         <v>43922</v>
       </c>
       <c r="B89" s="2">
-        <v>4.8222522532140601</v>
+        <v>4.8222522532140602</v>
       </c>
       <c r="C89" s="2">
         <v>3.5</v>
@@ -1160,7 +1160,7 @@
         <v>44287</v>
       </c>
       <c r="B101" s="2">
-        <v>5.5214701284176035</v>
+        <v>5.5214701284176036</v>
       </c>
       <c r="C101" s="2">
         <v>4.25</v>
@@ -1193,7 +1193,7 @@
         <v>44378</v>
       </c>
       <c r="B104" s="2">
-        <v>6.5096316414125805</v>
+        <v>6.5096316414125806</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
@@ -1204,7 +1204,7 @@
         <v>44409</v>
       </c>
       <c r="B105" s="2">
-        <v>5.8315007289581144</v>
+        <v>5.8315007289581145</v>
       </c>
       <c r="C105" s="2">
         <v>5</v>
@@ -1358,7 +1358,7 @@
         <v>44835</v>
       </c>
       <c r="B119" s="2">
-        <v>8.1706940260646324</v>
+        <v>8.1706940260646341</v>
       </c>
       <c r="C119" s="2">
         <v>7</v>
@@ -1478,8 +1478,12 @@
       <c r="A130" s="1">
         <v>45170</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="B130" s="2">
+        <v>4.5407539878582792</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
@@ -1523,6 +1527,41 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_mean.xlsx
+++ b/SCE_mean.xlsx
@@ -423,7 +423,7 @@
         <v>42248</v>
       </c>
       <c r="B34" s="2">
-        <v>5.8450186539383742</v>
+        <v>5.8450186539383751</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -599,7 +599,7 @@
         <v>42736</v>
       </c>
       <c r="B50" s="2">
-        <v>3.5363224359187027</v>
+        <v>3.5363224359186951</v>
       </c>
       <c r="C50" s="2">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>42795</v>
       </c>
       <c r="B52" s="2">
-        <v>4.4007252819400593</v>
+        <v>4.4007252819400584</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>43282</v>
       </c>
       <c r="B68" s="2">
-        <v>4.7951020103101882</v>
+        <v>4.7951020103101874</v>
       </c>
       <c r="C68" s="2">
         <v>3</v>
@@ -984,7 +984,7 @@
         <v>43800</v>
       </c>
       <c r="B85" s="2">
-        <v>4.5649542144552688</v>
+        <v>4.5649542144552671</v>
       </c>
       <c r="C85" s="2">
         <v>3</v>
@@ -1358,7 +1358,7 @@
         <v>44835</v>
       </c>
       <c r="B119" s="2">
-        <v>8.1706940260646341</v>
+        <v>8.1706940260646324</v>
       </c>
       <c r="C119" s="2">
         <v>7</v>
@@ -1380,7 +1380,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="2">
-        <v>6.6232865476542875</v>
+        <v>6.6232865476542848</v>
       </c>
       <c r="C121" s="2">
         <v>6</v>

--- a/SCE_mean.xlsx
+++ b/SCE_mean.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +577,7 @@
         <v>42675</v>
       </c>
       <c r="B48" s="2">
-        <v>2.8627888042811933</v>
+        <v>2.8627888042811942</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>42795</v>
       </c>
       <c r="B52" s="2">
-        <v>4.4007252819400584</v>
+        <v>4.4007252819400593</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>43282</v>
       </c>
       <c r="B68" s="2">
-        <v>4.7951020103101874</v>
+        <v>4.7951020103101882</v>
       </c>
       <c r="C68" s="2">
         <v>3</v>
@@ -1489,57 +1489,89 @@
       <c r="A131" s="1">
         <v>45200</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="B131" s="2">
+        <v>5.7662459745181556</v>
+      </c>
+      <c r="C131" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>45231</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="B132" s="2">
+        <v>4.6668984303790388</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>45261</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="B133" s="2">
+        <v>4.2313969537840279</v>
+      </c>
+      <c r="C133" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>45292</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="B134" s="2">
+        <v>5.6544956428051236</v>
+      </c>
+      <c r="C134" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>45323</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="B135" s="2">
+        <v>6.7576008482305978</v>
+      </c>
+      <c r="C135" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>45352</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="B136" s="2">
+        <v>3.6492519978627875</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>45383</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="B137" s="2">
+        <v>4.5776816546033379</v>
+      </c>
+      <c r="C137" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>45413</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="B138" s="2">
+        <v>5.0291237698224931</v>
+      </c>
+      <c r="C138" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
@@ -1562,6 +1594,48 @@
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_mean.xlsx
+++ b/SCE_mean.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -126,7 +126,7 @@
         <v>41426</v>
       </c>
       <c r="B7" s="2">
-        <v>5.376810576856137</v>
+        <v>5.3768105768561369</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -577,7 +577,7 @@
         <v>42675</v>
       </c>
       <c r="B48" s="2">
-        <v>2.8627888042811942</v>
+        <v>2.8627888042811933</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>42795</v>
       </c>
       <c r="B52" s="2">
-        <v>4.4007252819400593</v>
+        <v>4.4007252819400584</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
@@ -742,7 +742,7 @@
         <v>43132</v>
       </c>
       <c r="B63" s="2">
-        <v>4.3152441953006493</v>
+        <v>4.3152441953006555</v>
       </c>
       <c r="C63" s="2">
         <v>3</v>
@@ -767,7 +767,7 @@
         <v>5.6388926964112827</v>
       </c>
       <c r="C65" s="2">
-        <v>3.9000000953674317</v>
+        <v>3.9000000953674316</v>
       </c>
     </row>
     <row r="66">
@@ -1028,7 +1028,7 @@
         <v>43922</v>
       </c>
       <c r="B89" s="2">
-        <v>4.8222522532140602</v>
+        <v>4.8222522532140601</v>
       </c>
       <c r="C89" s="2">
         <v>3.5</v>
@@ -1160,7 +1160,7 @@
         <v>44287</v>
       </c>
       <c r="B101" s="2">
-        <v>5.5214701284176036</v>
+        <v>5.5214701284176035</v>
       </c>
       <c r="C101" s="2">
         <v>4.25</v>
@@ -1193,7 +1193,7 @@
         <v>44378</v>
       </c>
       <c r="B104" s="2">
-        <v>6.5096316414125806</v>
+        <v>6.5096316414125805</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
@@ -1204,7 +1204,7 @@
         <v>44409</v>
       </c>
       <c r="B105" s="2">
-        <v>5.8315007289581145</v>
+        <v>5.8315007289581144</v>
       </c>
       <c r="C105" s="2">
         <v>5</v>
@@ -1215,7 +1215,7 @@
         <v>44440</v>
       </c>
       <c r="B106" s="2">
-        <v>7.0039456721649129</v>
+        <v>7.003945672164912</v>
       </c>
       <c r="C106" s="2">
         <v>5</v>
@@ -1380,7 +1380,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="2">
-        <v>6.6232865476542848</v>
+        <v>6.6232865476542875</v>
       </c>
       <c r="C121" s="2">
         <v>6</v>
@@ -1577,15 +1577,23 @@
       <c r="A139" s="1">
         <v>45444</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="B139" s="2">
+        <v>3.0038180497508256</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3.5999999046325684</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
         <v>45474</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="B140" s="2">
+        <v>4.7476770051488746</v>
+      </c>
+      <c r="C140" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
@@ -1636,6 +1644,20 @@
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>